--- a/data/TilesList.xlsx
+++ b/data/TilesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="4560" windowWidth="27140" windowHeight="22880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25420" windowHeight="21320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="24">
-  <si>
-    <t>ID</t>
-  </si>
   <si>
     <t>Type</t>
   </si>
@@ -92,6 +89,9 @@
   <si>
     <t>empty</t>
   </si>
+  <si>
+    <t># ID</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +103,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,26 +462,26 @@
   <dimension ref="A1:E770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -490,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -507,16 +506,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -524,16 +523,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -541,16 +540,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -558,16 +557,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -575,16 +574,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -592,16 +591,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -609,16 +608,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -626,16 +625,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -643,16 +642,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -660,16 +659,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -677,16 +676,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -694,16 +693,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -711,16 +710,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -728,16 +727,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -745,16 +744,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -762,16 +761,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -779,16 +778,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -796,16 +795,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -813,16 +812,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -830,16 +829,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -847,16 +846,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -864,16 +863,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -881,16 +880,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -898,16 +897,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -915,16 +914,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -932,16 +931,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -949,16 +948,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -966,16 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -983,16 +982,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1000,16 +999,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1017,16 +1016,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1034,16 +1033,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1051,16 +1050,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1068,16 +1067,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1085,16 +1084,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1102,16 +1101,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1119,16 +1118,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1136,16 +1135,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1153,16 +1152,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1170,16 +1169,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1187,16 +1186,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1204,16 +1203,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1221,16 +1220,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1238,16 +1237,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1255,16 +1254,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1272,16 +1271,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1289,16 +1288,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1306,16 +1305,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1323,16 +1322,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1340,16 +1339,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1357,16 +1356,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1374,16 +1373,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1391,16 +1390,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1408,16 +1407,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1425,16 +1424,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1442,16 +1441,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1459,16 +1458,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1476,16 +1475,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1493,16 +1492,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1510,16 +1509,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1527,16 +1526,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1544,16 +1543,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1561,16 +1560,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1578,16 +1577,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1595,16 +1594,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1612,16 +1611,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1629,16 +1628,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1646,16 +1645,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1663,16 +1662,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1680,16 +1679,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1697,16 +1696,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1714,16 +1713,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1731,16 +1730,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1748,16 +1747,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1765,16 +1764,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1782,16 +1781,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1799,16 +1798,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1816,16 +1815,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1833,16 +1832,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1850,16 +1849,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1867,16 +1866,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1884,16 +1883,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1901,16 +1900,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1918,16 +1917,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1935,16 +1934,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1952,16 +1951,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1969,16 +1968,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1986,16 +1985,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2003,16 +2002,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2020,16 +2019,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2037,16 +2036,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2054,16 +2053,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2071,16 +2070,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2088,16 +2087,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2105,16 +2104,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2122,16 +2121,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2139,16 +2138,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2156,16 +2155,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2173,16 +2172,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2190,16 +2189,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2207,16 +2206,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2224,16 +2223,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2241,16 +2240,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2258,16 +2257,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2275,16 +2274,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2292,16 +2291,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2309,16 +2308,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2326,16 +2325,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2343,16 +2342,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2360,16 +2359,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2377,16 +2376,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2394,16 +2393,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2411,16 +2410,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2428,16 +2427,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2445,16 +2444,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2462,16 +2461,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2479,16 +2478,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2496,16 +2495,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2513,16 +2512,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2530,16 +2529,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2547,16 +2546,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2564,16 +2563,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2581,16 +2580,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2598,16 +2597,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2615,16 +2614,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2632,16 +2631,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2649,16 +2648,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2666,16 +2665,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2683,16 +2682,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
         <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4615,16 +4614,16 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
+        <v>11</v>
+      </c>
+      <c r="C515" t="s">
+        <v>7</v>
+      </c>
+      <c r="D515" t="s">
         <v>12</v>
       </c>
-      <c r="C515" t="s">
-        <v>8</v>
-      </c>
-      <c r="D515" t="s">
+      <c r="E515" t="s">
         <v>13</v>
-      </c>
-      <c r="E515" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -4787,16 +4786,16 @@
         <v>545</v>
       </c>
       <c r="B547" t="s">
+        <v>14</v>
+      </c>
+      <c r="C547" t="s">
+        <v>7</v>
+      </c>
+      <c r="D547" t="s">
+        <v>12</v>
+      </c>
+      <c r="E547" t="s">
         <v>15</v>
-      </c>
-      <c r="C547" t="s">
-        <v>8</v>
-      </c>
-      <c r="D547" t="s">
-        <v>13</v>
-      </c>
-      <c r="E547" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -4804,16 +4803,16 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
+        <v>14</v>
+      </c>
+      <c r="C548" t="s">
+        <v>7</v>
+      </c>
+      <c r="D548" t="s">
+        <v>12</v>
+      </c>
+      <c r="E548" t="s">
         <v>15</v>
-      </c>
-      <c r="C548" t="s">
-        <v>8</v>
-      </c>
-      <c r="D548" t="s">
-        <v>13</v>
-      </c>
-      <c r="E548" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -4971,16 +4970,16 @@
         <v>577</v>
       </c>
       <c r="B579" t="s">
+        <v>16</v>
+      </c>
+      <c r="C579" t="s">
+        <v>7</v>
+      </c>
+      <c r="D579" t="s">
+        <v>12</v>
+      </c>
+      <c r="E579" t="s">
         <v>17</v>
-      </c>
-      <c r="C579" t="s">
-        <v>8</v>
-      </c>
-      <c r="D579" t="s">
-        <v>13</v>
-      </c>
-      <c r="E579" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -4988,16 +4987,16 @@
         <v>578</v>
       </c>
       <c r="B580" t="s">
+        <v>16</v>
+      </c>
+      <c r="C580" t="s">
+        <v>7</v>
+      </c>
+      <c r="D580" t="s">
+        <v>12</v>
+      </c>
+      <c r="E580" t="s">
         <v>17</v>
-      </c>
-      <c r="C580" t="s">
-        <v>8</v>
-      </c>
-      <c r="D580" t="s">
-        <v>13</v>
-      </c>
-      <c r="E580" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -5075,16 +5074,16 @@
         <v>593</v>
       </c>
       <c r="B595" t="s">
+        <v>16</v>
+      </c>
+      <c r="C595" t="s">
+        <v>7</v>
+      </c>
+      <c r="D595" t="s">
+        <v>12</v>
+      </c>
+      <c r="E595" t="s">
         <v>17</v>
-      </c>
-      <c r="C595" t="s">
-        <v>8</v>
-      </c>
-      <c r="D595" t="s">
-        <v>13</v>
-      </c>
-      <c r="E595" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -5092,16 +5091,16 @@
         <v>594</v>
       </c>
       <c r="B596" t="s">
+        <v>16</v>
+      </c>
+      <c r="C596" t="s">
+        <v>7</v>
+      </c>
+      <c r="D596" t="s">
+        <v>12</v>
+      </c>
+      <c r="E596" t="s">
         <v>17</v>
-      </c>
-      <c r="C596" t="s">
-        <v>8</v>
-      </c>
-      <c r="D596" t="s">
-        <v>13</v>
-      </c>
-      <c r="E596" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -5339,16 +5338,16 @@
         <v>641</v>
       </c>
       <c r="B643" t="s">
+        <v>18</v>
+      </c>
+      <c r="C643" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643" t="s">
+        <v>7</v>
+      </c>
+      <c r="E643" t="s">
         <v>19</v>
-      </c>
-      <c r="C643" t="s">
-        <v>13</v>
-      </c>
-      <c r="D643" t="s">
-        <v>13</v>
-      </c>
-      <c r="E643" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -5356,16 +5355,16 @@
         <v>642</v>
       </c>
       <c r="B644" t="s">
+        <v>18</v>
+      </c>
+      <c r="C644" t="s">
+        <v>12</v>
+      </c>
+      <c r="D644" t="s">
+        <v>7</v>
+      </c>
+      <c r="E644" t="s">
         <v>19</v>
-      </c>
-      <c r="C644" t="s">
-        <v>13</v>
-      </c>
-      <c r="D644" t="s">
-        <v>13</v>
-      </c>
-      <c r="E644" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -5373,16 +5372,16 @@
         <v>643</v>
       </c>
       <c r="B645" t="s">
+        <v>18</v>
+      </c>
+      <c r="C645" t="s">
+        <v>12</v>
+      </c>
+      <c r="D645" t="s">
+        <v>7</v>
+      </c>
+      <c r="E645" t="s">
         <v>19</v>
-      </c>
-      <c r="C645" t="s">
-        <v>13</v>
-      </c>
-      <c r="D645" t="s">
-        <v>13</v>
-      </c>
-      <c r="E645" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -5390,16 +5389,16 @@
         <v>644</v>
       </c>
       <c r="B646" t="s">
+        <v>18</v>
+      </c>
+      <c r="C646" t="s">
+        <v>12</v>
+      </c>
+      <c r="D646" t="s">
+        <v>7</v>
+      </c>
+      <c r="E646" t="s">
         <v>19</v>
-      </c>
-      <c r="C646" t="s">
-        <v>13</v>
-      </c>
-      <c r="D646" t="s">
-        <v>13</v>
-      </c>
-      <c r="E646" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -5407,16 +5406,16 @@
         <v>645</v>
       </c>
       <c r="B647" t="s">
+        <v>18</v>
+      </c>
+      <c r="C647" t="s">
+        <v>12</v>
+      </c>
+      <c r="D647" t="s">
+        <v>7</v>
+      </c>
+      <c r="E647" t="s">
         <v>19</v>
-      </c>
-      <c r="C647" t="s">
-        <v>13</v>
-      </c>
-      <c r="D647" t="s">
-        <v>13</v>
-      </c>
-      <c r="E647" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -5424,16 +5423,16 @@
         <v>646</v>
       </c>
       <c r="B648" t="s">
+        <v>18</v>
+      </c>
+      <c r="C648" t="s">
+        <v>12</v>
+      </c>
+      <c r="D648" t="s">
+        <v>7</v>
+      </c>
+      <c r="E648" t="s">
         <v>19</v>
-      </c>
-      <c r="C648" t="s">
-        <v>13</v>
-      </c>
-      <c r="D648" t="s">
-        <v>13</v>
-      </c>
-      <c r="E648" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -5441,16 +5440,16 @@
         <v>647</v>
       </c>
       <c r="B649" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C649" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D649" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E649" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -5458,16 +5457,16 @@
         <v>648</v>
       </c>
       <c r="B650" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C650" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D650" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E650" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="651" spans="1:5">
